--- a/Documentacion/RF_Y_ERF_CUADROS_SRS.xlsx
+++ b/Documentacion/RF_Y_ERF_CUADROS_SRS.xlsx
@@ -2928,17 +2928,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3004,35 +2995,161 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3052,65 +3169,89 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -3120,147 +3261,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3563,70 +3563,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="33">
         <v>45489</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="34">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
@@ -3657,202 +3657,202 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3860,42 +3860,42 @@
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3927,69 +3927,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4013,26 +4013,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4054,83 +4054,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4143,1261 +4143,1156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:F129"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="19.5703125" style="36" customWidth="1"/>
+    <col min="2" max="6" width="19.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
+      <c r="B28" s="29"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="52" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="52"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
-      <c r="C33" s="58" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
     </row>
     <row r="34" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
     </row>
     <row r="44" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
+      <c r="B44" s="22"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="29"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29" t="s">
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
-      <c r="C49" s="30" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="65"/>
+      <c r="C50" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
-      <c r="C52" s="30" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
     </row>
     <row r="57" spans="2:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
     </row>
     <row r="59" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
     </row>
     <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="37"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52" t="s">
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="52"/>
-      <c r="C67" s="52" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
     </row>
     <row r="70" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52" t="s">
+      <c r="C70" s="37"/>
+      <c r="D70" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
     </row>
     <row r="72" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
     </row>
     <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="46"/>
+      <c r="B79" s="30"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="48" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="F80" s="48"/>
+      <c r="F80" s="57"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="48" t="s">
+      <c r="D81" s="51"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="48"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="48"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="57"/>
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="48"/>
-      <c r="C84" s="30" t="s">
+      <c r="B84" s="57"/>
+      <c r="C84" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
     </row>
     <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="48"/>
-      <c r="C85" s="30" t="s">
+      <c r="B85" s="57"/>
+      <c r="C85" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="48"/>
-      <c r="C86" s="30" t="s">
+      <c r="B86" s="57"/>
+      <c r="C86" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
     </row>
     <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48" t="s">
+      <c r="C87" s="57"/>
+      <c r="D87" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
     </row>
     <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="89" spans="2:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
     </row>
     <row r="91" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
     </row>
     <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
     </row>
     <row r="93" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="91"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
     </row>
     <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="46"/>
+      <c r="B96" s="30"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
     </row>
     <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="46"/>
+      <c r="B97" s="30"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
     </row>
     <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="52" t="s">
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="F98" s="52"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="106" t="s">
+      <c r="B99" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="108" t="s">
+      <c r="C99" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D99" s="109"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="52" t="s">
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="107"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="52"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="37"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
     </row>
     <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="52"/>
-      <c r="C102" s="53" t="s">
+      <c r="B102" s="37"/>
+      <c r="C102" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="52"/>
-      <c r="C103" s="53" t="s">
+      <c r="B103" s="37"/>
+      <c r="C103" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
     </row>
     <row r="104" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="52" t="s">
+      <c r="B104" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52" t="s">
+      <c r="C104" s="37"/>
+      <c r="D104" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
     </row>
     <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
     </row>
     <row r="106" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="105"/>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
     </row>
     <row r="108" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
     </row>
     <row r="109" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
     </row>
     <row r="111" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="92" t="s">
+      <c r="B111" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="92"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="92"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="92" t="s">
+      <c r="B112" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="46"/>
+      <c r="B114" s="30"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="52" t="s">
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F115" s="52"/>
+      <c r="F115" s="37"/>
     </row>
     <row r="116" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="106" t="s">
+      <c r="B116" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="108" t="s">
+      <c r="C116" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D116" s="109"/>
-      <c r="E116" s="110"/>
-      <c r="F116" s="106" t="s">
+      <c r="D116" s="41"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="38" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="107"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="107"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="39"/>
     </row>
     <row r="118" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
     </row>
     <row r="119" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="52"/>
-      <c r="C119" s="53" t="s">
+      <c r="B119" s="37"/>
+      <c r="C119" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="52"/>
-      <c r="C120" s="53" t="s">
+      <c r="B120" s="37"/>
+      <c r="C120" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
     </row>
     <row r="121" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52" t="s">
+      <c r="C121" s="37"/>
+      <c r="D121" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
     </row>
     <row r="122" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
     </row>
     <row r="124" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="51"/>
-      <c r="F124" s="51"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
     </row>
     <row r="125" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="53"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
     </row>
     <row r="128" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="53" t="s">
+      <c r="B128" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="53"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
     </row>
     <row r="129" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="53" t="s">
+      <c r="B129" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="C81:E82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -5422,13 +5317,118 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:E100"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C120:F120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5438,8 +5438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,1036 +5451,1104 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="44"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="79" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="93" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="97"/>
     </row>
     <row r="12" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
     </row>
     <row r="15" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
     </row>
     <row r="16" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
     </row>
     <row r="17" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
+      <c r="B18" s="29"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
     </row>
     <row r="25" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
     </row>
     <row r="27" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="62"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="74"/>
+      <c r="C43" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="52"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="61"/>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="91"/>
+      <c r="C46" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="74"/>
+      <c r="C47" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
     </row>
     <row r="48" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
     </row>
     <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
     </row>
     <row r="53" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
     </row>
     <row r="54" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
     </row>
     <row r="56" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="57" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
     </row>
     <row r="58" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
     </row>
     <row r="59" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52" t="s">
+      <c r="C61" s="37"/>
+      <c r="D61" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
     </row>
     <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52" t="s">
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="52"/>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
     </row>
     <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="52"/>
-      <c r="C64" s="54" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="52"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="37"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
     </row>
     <row r="66" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="62"/>
-      <c r="C66" s="58" t="s">
+      <c r="B66" s="74"/>
+      <c r="C66" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
     </row>
     <row r="67" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F67" s="52"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
     </row>
     <row r="69" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
     </row>
     <row r="71" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
     </row>
     <row r="73" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
     </row>
     <row r="74" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="52"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52" t="s">
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="52"/>
-      <c r="C79" s="52" t="s">
+      <c r="B79" s="37"/>
+      <c r="C79" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="52"/>
-      <c r="C80" s="54" t="s">
+      <c r="B80" s="37"/>
+      <c r="C80" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="52"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="37"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
     </row>
     <row r="82" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
     </row>
     <row r="83" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52" t="s">
+      <c r="C83" s="46"/>
+      <c r="D83" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
     </row>
     <row r="85" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
     </row>
     <row r="87" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
     </row>
     <row r="88" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
     </row>
     <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
     </row>
     <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
+      <c r="B93" s="24"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="46"/>
+      <c r="B95" s="30"/>
     </row>
     <row r="96" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48" t="s">
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="F96" s="48"/>
+      <c r="F96" s="57"/>
     </row>
     <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="48" t="s">
+      <c r="D97" s="51"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="103"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="98"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="48"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="57"/>
     </row>
     <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="102" t="s">
+      <c r="B99" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="104"/>
-      <c r="C100" s="100" t="s">
+      <c r="B100" s="85"/>
+      <c r="C100" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="104"/>
-      <c r="C101" s="100" t="s">
+      <c r="B101" s="85"/>
+      <c r="C101" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
     </row>
     <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C102" s="47"/>
-      <c r="D102" s="48" t="s">
+      <c r="C102" s="58"/>
+      <c r="D102" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
     </row>
     <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
     </row>
     <row r="104" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
     </row>
     <row r="105" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
     </row>
     <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
     </row>
     <row r="107" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
     </row>
     <row r="108" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
     </row>
     <row r="109" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="101" t="s">
+      <c r="B109" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
     </row>
     <row r="110" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="101" t="s">
+      <c r="B110" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87"/>
     </row>
     <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="45"/>
+      <c r="B113" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C97:E98"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B96:D96"/>
@@ -6505,92 +6573,24 @@
     <mergeCell ref="F78:F80"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C97:E98"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
